--- a/A2_results_step1.5_oneprice.xlsx
+++ b/A2_results_step1.5_oneprice.xlsx
@@ -27,9 +27,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>x9</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>x11</t>
+  </si>
+  <si>
+    <t>x12</t>
+  </si>
+  <si>
+    <t>x13</t>
+  </si>
+  <si>
+    <t>x14</t>
+  </si>
+  <si>
+    <t>x15</t>
+  </si>
+  <si>
+    <t>x16</t>
+  </si>
+  <si>
+    <t>x17</t>
+  </si>
+  <si>
+    <t>x18</t>
+  </si>
+  <si>
+    <t>x19</t>
+  </si>
+  <si>
+    <t>x20</t>
+  </si>
+  <si>
+    <t>x21</t>
+  </si>
+  <si>
+    <t>x22</t>
+  </si>
+  <si>
+    <t>x23</t>
+  </si>
+  <si>
+    <t>x24</t>
   </si>
 </sst>
 </file>
@@ -2399,134 +2468,157 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>71865.48750000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+      <c r="B2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+      <c r="C2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+      <c r="D2">
         <v>66867.11249999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+      <c r="E2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+      <c r="F2">
         <v>85071.02999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+      <c r="G2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+      <c r="H2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+      <c r="I2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+      <c r="J2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+      <c r="K2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
+      <c r="L2">
         <v>76175.91</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
+      <c r="M2">
         <v>71629.39499999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+      <c r="N2">
         <v>69435.38250000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
+      <c r="O2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+      <c r="P2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+      <c r="Q2">
         <v>89052.57</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+      <c r="R2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+      <c r="S2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+      <c r="T2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+      <c r="U2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+      <c r="V2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+      <c r="W2">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+      <c r="X2">
         <v>0.0</v>
       </c>
     </row>

--- a/A2_results_step1.5_oneprice.xlsx
+++ b/A2_results_step1.5_oneprice.xlsx
@@ -463,2002 +463,2002 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>535998.871875</v>
+        <v>524969.540625</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>537392.5876874999</v>
+        <v>526363.2564375</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>541476.7970624999</v>
+        <v>530447.4658125</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>534318.6131249999</v>
+        <v>523289.28187500004</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>534536.5961249999</v>
+        <v>523507.264875</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>536728.0145625</v>
+        <v>525698.6833125</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>535899.1089374999</v>
+        <v>524869.7776875</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>535921.53675</v>
+        <v>524892.2055</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>538292.8319999999</v>
+        <v>527263.50075</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>538031.4967499999</v>
+        <v>527002.1655</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>537845.8228125</v>
+        <v>526816.4915625</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>535445.7073125</v>
+        <v>524416.3760625</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>538386.0301875</v>
+        <v>527356.6989375</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>533541.5870625</v>
+        <v>522512.2558125</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>532546.8373125</v>
+        <v>521517.5060625</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>534360.915375</v>
+        <v>523331.58412500005</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>538589.2664999999</v>
+        <v>527559.93525</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>541578.9898125</v>
+        <v>530549.6585625</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>538713.4454999999</v>
+        <v>527684.11425</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>538491.6714374999</v>
+        <v>527462.3401875</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>540287.9715</v>
+        <v>529258.64025</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>540314.3596874999</v>
+        <v>529285.0284375</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>544211.5670624999</v>
+        <v>533182.2358125</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>540032.93175</v>
+        <v>529003.6005000001</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>539927.6315624999</v>
+        <v>528898.3003125</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>543643.437375</v>
+        <v>532614.106125</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>540961.5418125</v>
+        <v>529932.2105625</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>545280.3699375</v>
+        <v>534251.0386875</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>544203.8304374999</v>
+        <v>533174.4991875</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>548215.4379375</v>
+        <v>537186.1066875</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>540526.1319375</v>
+        <v>529496.8006875</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>543565.7030625</v>
+        <v>532536.3718125001</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>544840.3355624999</v>
+        <v>533811.0043125</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>544981.462875</v>
+        <v>533952.131625</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>550356.2707499999</v>
+        <v>539326.9395</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>546865.5348749999</v>
+        <v>535836.203625</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>548860.4456249999</v>
+        <v>537831.114375</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>549116.5025625</v>
+        <v>538087.1713125</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>556463.30325</v>
+        <v>545433.9720000001</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>542152.5039375</v>
+        <v>531123.1726875</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>542965.5457499999</v>
+        <v>531936.2145</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>546516.6706874999</v>
+        <v>535487.3394375</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>554010.831</v>
+        <v>542981.4997500001</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>553066.6965</v>
+        <v>542037.36525</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>557393.7961875</v>
+        <v>546364.4649375001</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>566699.5413749999</v>
+        <v>555670.210125</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>565371.5608125</v>
+        <v>554342.2295625</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>550862.1525</v>
+        <v>539832.82125</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>555072.8229375</v>
+        <v>544043.4916875</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>553313.3596874999</v>
+        <v>542284.0284375</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>556509.89925</v>
+        <v>545480.568</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>557896.8804375</v>
+        <v>546867.5491875</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>556433.6731875</v>
+        <v>545404.3419375</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>552440.5151249999</v>
+        <v>541411.183875</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>557542.4917499999</v>
+        <v>546513.1605</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>539001.528375</v>
+        <v>527972.1971250001</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>559421.0583749999</v>
+        <v>548391.727125</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>557512.1375625</v>
+        <v>546482.8063125</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>555655.2665624999</v>
+        <v>544625.9353125</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>554086.0989374999</v>
+        <v>543056.7676875</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>558767.325</v>
+        <v>547737.99375</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>568753.031625</v>
+        <v>557723.700375</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>574099.215</v>
+        <v>563069.88375</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>566092.7229375</v>
+        <v>555063.3916875</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>564308.532375</v>
+        <v>553279.201125</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>571026.016125</v>
+        <v>559996.684875</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>570816.9802499999</v>
+        <v>559787.649</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>568961.880375</v>
+        <v>557932.549125</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>573535.2772499999</v>
+        <v>562505.946</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>571453.5189375</v>
+        <v>560424.1876875</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>562435.8298124999</v>
+        <v>551406.4985625</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>561370.1064375</v>
+        <v>550340.7751875</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>566781.4449374999</v>
+        <v>555752.1136875</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>567627.9007499999</v>
+        <v>556598.5695</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>572839.5470624999</v>
+        <v>561810.2158125</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>583777.587375</v>
+        <v>572748.2561250001</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>581286.9931874999</v>
+        <v>570257.6619375</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>591239.8074375</v>
+        <v>580210.4761875</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>588857.3810625</v>
+        <v>577828.0498125</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>604157.9836875</v>
+        <v>593128.6524375001</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>569885.4339375</v>
+        <v>558856.1026875001</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>568982.4001874999</v>
+        <v>557953.0689375</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>622630.7566874999</v>
+        <v>611601.4254375</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>534296.4091874999</v>
+        <v>523267.0779375</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>536873.6056875</v>
+        <v>525844.2744375</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>535879.9726875</v>
+        <v>524850.6414375</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>536212.3156874999</v>
+        <v>525182.9844375</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>533322.0459375</v>
+        <v>522292.71468750003</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>533354.4774374999</v>
+        <v>522325.14618750004</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>535806.6798749999</v>
+        <v>524777.348625</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>534744.5036249999</v>
+        <v>523715.172375</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>534519.995625</v>
+        <v>523490.66437500005</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>537130.8553124999</v>
+        <v>526101.5240625</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>536681.9041875</v>
+        <v>525652.5729375001</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>539795.25</v>
+        <v>528765.9187500001</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>536149.462875</v>
+        <v>525120.131625</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>535420.72425</v>
+        <v>524391.393</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>538675.2140624999</v>
+        <v>527645.8828125</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>534448.963125</v>
+        <v>523419.631875</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>537958.3809374999</v>
+        <v>526929.0496875</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>537129.1573124999</v>
+        <v>526099.8260625</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>536864.9705625</v>
+        <v>525835.6393125</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>539179.1619375</v>
+        <v>528149.8306875001</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>538569.3318749999</v>
+        <v>527540.000625</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>538175.91825</v>
+        <v>527146.587</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>542601.0196875</v>
+        <v>531571.6884375</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>538231.0839374999</v>
+        <v>527201.7526875</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>538901.9998125</v>
+        <v>527872.6685625</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>538619.7755625</v>
+        <v>527590.4443125001</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>543246.2844374999</v>
+        <v>532216.9531875</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>541965.3345</v>
+        <v>530936.0032500001</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>541206.99975</v>
+        <v>530177.6685</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>538079.815125</v>
+        <v>527050.483875</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>537907.9216875</v>
+        <v>526878.5904375</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>538302.8161874999</v>
+        <v>527273.4849375</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>538321.865625</v>
+        <v>527292.534375</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>542029.4966249999</v>
+        <v>531000.165375</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>542284.7801249999</v>
+        <v>531255.448875</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>541781.9533124999</v>
+        <v>530752.6220625</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>543617.3653124999</v>
+        <v>532588.0340625</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>546511.4128124999</v>
+        <v>535482.0815625</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>546013.2898125</v>
+        <v>534983.9585625001</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>554211.6577499999</v>
+        <v>543182.3265</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>539663.1016874999</v>
+        <v>528633.7704375</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>539746.97925</v>
+        <v>528717.648</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>548305.5976875</v>
+        <v>537276.2664375</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>548269.0344374999</v>
+        <v>537239.7031875</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>558733.6876874999</v>
+        <v>547704.3564375</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>525881.334375</v>
+        <v>514852.00312500005</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>527709.43575</v>
+        <v>516680.1045</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>525424.0087499999</v>
+        <v>514394.67750000005</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>528239.1551249999</v>
+        <v>517209.823875</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>526557.24</v>
+        <v>515527.90875</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>526602.7524374999</v>
+        <v>515573.4211875</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>528474.9254999999</v>
+        <v>517445.59425</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>527550.3374999999</v>
+        <v>516521.00625000003</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>527764.086375</v>
+        <v>516734.755125</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>529998.0301875</v>
+        <v>518968.6989375</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>529165.34625</v>
+        <v>518136.015</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>528893.092125</v>
+        <v>517863.76087500004</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>530168.5143749999</v>
+        <v>519139.18312500004</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>526976.8111874999</v>
+        <v>515947.47993750003</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>526889.8040624999</v>
+        <v>515860.4728125</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>529640.1676874999</v>
+        <v>518610.8364375</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>527297.212125</v>
+        <v>516267.88087500003</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>527442.9050624999</v>
+        <v>516413.57381250005</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>525474.0020625</v>
+        <v>514444.6708125</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>525841.3070624999</v>
+        <v>514811.97581250005</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>524188.04774999997</v>
+        <v>513158.71650000004</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>528182.1808125</v>
+        <v>517152.8495625</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>526250.8346249999</v>
+        <v>515221.50337500003</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>526550.3990625</v>
+        <v>515521.0678125</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>529969.8914999999</v>
+        <v>518940.56025000004</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>529876.578</v>
+        <v>518847.24675000005</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>526441.3696875</v>
+        <v>515412.0384375</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>526866.6847499999</v>
+        <v>515837.3535</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>524120.03381249995</v>
+        <v>513090.7025625</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>528518.9114999999</v>
+        <v>517489.58025</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>523340.06812499993</v>
+        <v>512310.736875</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>523883.79168749996</v>
+        <v>512854.46043750003</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>528719.088</v>
+        <v>517689.75675</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>521474.1035625</v>
+        <v>510444.77231250005</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>522310.52624999994</v>
+        <v>511281.195</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>528373.0925624999</v>
+        <v>517343.7613125</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>525904.3209375</v>
+        <v>514874.9896875</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>526515.4430625</v>
+        <v>515486.11181250005</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>516526.69406249997</v>
+        <v>505497.36281250004</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>518485.28925</v>
+        <v>507455.95800000004</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>526120.0918124999</v>
+        <v>515090.76056250004</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>520313.00549999997</v>
+        <v>509283.67425000004</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>521330.9803125</v>
+        <v>510301.64906250004</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>516503.37299999996</v>
+        <v>505474.04175000003</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>517977.46274999995</v>
+        <v>506948.1315</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>519756.93674999994</v>
+        <v>508727.6055</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>521837.52956249996</v>
+        <v>510808.1983125</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>519923.17481249996</v>
+        <v>508893.8435625</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>520981.23824999994</v>
+        <v>509951.907</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>522029.27475</v>
+        <v>510999.94350000005</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>520272.98193749995</v>
+        <v>509243.6506875</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>521214.83062499994</v>
+        <v>510185.499375</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>522457.37287499994</v>
+        <v>511428.041625</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>519949.17899999995</v>
+        <v>508919.84775</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>521220.6898125</v>
+        <v>510191.35856250004</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>525132.582375</v>
+        <v>514103.251125</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>525340.6494374999</v>
+        <v>514311.3181875</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>526094.523375</v>
+        <v>515065.192125</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>519189.57243749994</v>
+        <v>508160.2411875</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>520870.97981249995</v>
+        <v>509841.6485625</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>522941.3923124999</v>
+        <v>511912.0610625</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>515065.4711249999</v>
+        <v>504036.139875</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>518269.50074999995</v>
+        <v>507240.1695</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>516340.1969999999</v>
+        <v>505310.86575</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>517509.38681249996</v>
+        <v>506480.0555625</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>513356.10299999994</v>
+        <v>502326.77175</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>517030.5048749999</v>
+        <v>506001.173625</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>515578.892625</v>
+        <v>504549.56137500005</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>516965.9782499999</v>
+        <v>505936.647</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>520276.78406249994</v>
+        <v>509247.4528125</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>522761.35668749997</v>
+        <v>511732.02543750004</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>519027.91031249997</v>
+        <v>507998.57906250004</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>520717.28699999995</v>
+        <v>509687.95575</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>509380.21518749994</v>
+        <v>498350.8839375</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>511438.36087499995</v>
+        <v>500409.029625</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>508218.88574999996</v>
+        <v>497189.5545</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>510222.62174999993</v>
+        <v>499193.2905</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>502489.85774999997</v>
+        <v>491460.52650000004</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>505050.8383125</v>
+        <v>494021.50706250005</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>517473.08906249993</v>
+        <v>506443.7578125</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>500013.45318749995</v>
+        <v>488984.1219375</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>518669.21568749996</v>
+        <v>507639.88443750003</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>517467.3226875</v>
+        <v>506437.99143750005</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>518660.12249999994</v>
+        <v>507630.79125</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>519447.23906249995</v>
+        <v>508417.9078125</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>517555.3241249999</v>
+        <v>506525.992875</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>519549.72918749996</v>
+        <v>508520.39793750003</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>518592.77568749996</v>
+        <v>507563.44443750003</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>516731.45643749996</v>
+        <v>505702.12518750003</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>517774.80993749993</v>
+        <v>506745.4786875</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>524277.64218749997</v>
+        <v>513248.31093750003</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>525217.9484999999</v>
+        <v>514188.61725</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>515616.30712499993</v>
+        <v>504586.975875</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>516480.82031249994</v>
+        <v>505451.4890625</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>518238.73274999997</v>
+        <v>507209.40150000004</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>519209.43056249997</v>
+        <v>508180.09931250004</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>511136.05293749995</v>
+        <v>500106.7216875</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>512581.1926875</v>
+        <v>501551.86143750005</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>512768.69062499993</v>
+        <v>501739.359375</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>514040.93887499993</v>
+        <v>503011.607625</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>509198.56443749997</v>
+        <v>498169.23318750004</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>511082.84624999994</v>
+        <v>500053.515</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>512669.75756249996</v>
+        <v>501640.4263125</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>512779.5680625</v>
+        <v>501750.23681250005</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>514410.35418749996</v>
+        <v>503381.02293750003</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>518184.75581249996</v>
+        <v>507155.42456250003</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>519217.18612499995</v>
+        <v>508187.854875</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>515206.57668749994</v>
+        <v>504177.2454375</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>503970.2793749999</v>
+        <v>492940.948125</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>508243.24256249995</v>
+        <v>497213.9113125</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>502381.46062499995</v>
+        <v>491352.129375</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>504538.56693749997</v>
+        <v>493509.23568750004</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>495196.93368749996</v>
+        <v>484167.6024375</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>497962.26562499994</v>
+        <v>486932.934375</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>512001.84674999997</v>
+        <v>500972.51550000004</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>515139.21074999997</v>
+        <v>504109.87950000004</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>486998.96024999995</v>
+        <v>475969.629</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>490447.43924999994</v>
+        <v>479418.108</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>522030.76331249997</v>
+        <v>511001.43206250004</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>523696.47843749996</v>
+        <v>512667.1471875</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>524746.7510624999</v>
+        <v>513717.4198125</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>518991.54018749995</v>
+        <v>507962.2089375</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>521347.25437499996</v>
+        <v>510317.92312500003</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>523652.46693749994</v>
+        <v>512623.1356875</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>524700.1222499999</v>
+        <v>513670.791</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>522534.04574999993</v>
+        <v>511504.7145</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>523919.41012499994</v>
+        <v>512890.078875</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>525005.0581875</v>
+        <v>513975.7269375</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>523333.84237499995</v>
+        <v>512304.511125</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>524608.3708124999</v>
+        <v>513579.0395625</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>525913.5939374999</v>
+        <v>514884.26268750004</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>524988.8461874999</v>
+        <v>513959.5149375</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>521249.97075</v>
+        <v>510220.63950000005</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>523874.80049999995</v>
+        <v>512845.46925</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>525166.5226875</v>
+        <v>514137.1914375</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>526377.3789375</v>
+        <v>515348.0476875</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>519667.44562499993</v>
+        <v>508638.114375</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>520484.8813124999</v>
+        <v>509455.5500625</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>522117.83418749995</v>
+        <v>511088.5029375</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>524010.06431249995</v>
+        <v>512980.7330625</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>518187.05512499996</v>
+        <v>507157.723875</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>520509.27749999997</v>
+        <v>509479.94625000004</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>522506.8305</v>
+        <v>511477.49925000005</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>520776.18674999994</v>
+        <v>509746.8555</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>522763.88699999993</v>
+        <v>511734.55575</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>524801.254125</v>
+        <v>513771.92287500005</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>524837.4973124999</v>
+        <v>513808.16606250004</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>526476.6969374999</v>
+        <v>515447.36568750005</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>521150.45006249996</v>
+        <v>510121.11881250003</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>515179.72424999997</v>
+        <v>504150.39300000004</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>520920.37068749993</v>
+        <v>509891.0394375</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>514789.09724999993</v>
+        <v>503759.766</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>518624.17443749995</v>
+        <v>507594.8431875</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>521343.75149999995</v>
+        <v>510314.42025</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>525423.5726249999</v>
+        <v>514394.24137500004</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>507327.89381249994</v>
+        <v>496298.5625625</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>536129.2674375</v>
+        <v>525099.9361875</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>538632.7496249999</v>
+        <v>527603.418375</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>540240.5557499999</v>
+        <v>529211.2245</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>534833.8940625</v>
+        <v>523804.56281250005</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>535221.5281875</v>
+        <v>524192.19693750003</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>535937.2951875</v>
+        <v>524907.9639375</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>538217.5663124999</v>
+        <v>527188.2350625</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>538350.4606875</v>
+        <v>527321.1294375</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>541378.3310624999</v>
+        <v>530348.9998125</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>535151.0064375</v>
+        <v>524121.6751875</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>532846.8950624999</v>
+        <v>521817.56381250004</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>537577.5290625</v>
+        <v>526548.1978125001</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>540980.6304375</v>
+        <v>529951.2991875</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>537347.70225</v>
+        <v>526318.371</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>537444.8911875</v>
+        <v>526415.5599375</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>540907.4773125</v>
+        <v>529878.1460625001</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>540107.6143125</v>
+        <v>529078.2830625001</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>540298.409625</v>
+        <v>529269.078375</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>544370.9715</v>
+        <v>533341.64025</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>541199.9278124999</v>
+        <v>530170.5965625</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>545685.6187499999</v>
+        <v>534656.2875</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>540986.10375</v>
+        <v>529956.7725000001</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>542473.4064374999</v>
+        <v>531444.0751875</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>542964.2461875</v>
+        <v>531934.9149375</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>546850.996875</v>
+        <v>535821.665625</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>544825.4060625</v>
+        <v>533796.0748125</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>545391.9596249999</v>
+        <v>534362.628375</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>551312.975625</v>
+        <v>540283.644375</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>546869.8162499999</v>
+        <v>535840.485</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>547336.5982499999</v>
+        <v>536307.267</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>551456.3476875</v>
+        <v>540427.0164375</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>552179.9249999999</v>
+        <v>541150.59375</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>560471.178</v>
+        <v>549441.84675</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>547044.9256874999</v>
+        <v>536015.5944375</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>555515.1018749999</v>
+        <v>544485.770625</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>565958.268375</v>
+        <v>554928.937125</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>537272.129625</v>
+        <v>526242.798375</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>538284.685875</v>
+        <v>527255.354625</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>541259.9424375</v>
+        <v>530230.6111875001</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>542702.4075</v>
+        <v>531673.07625</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>546191.3019374999</v>
+        <v>535161.9706875</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>538442.8288125</v>
+        <v>527413.4975625001</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>536624.2188749999</v>
+        <v>525594.887625</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>538921.933125</v>
+        <v>527892.601875</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>542106.7274999999</v>
+        <v>531077.39625</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>534334.221375</v>
+        <v>523304.89012500003</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>534676.3318124999</v>
+        <v>523647.00056250003</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>537166.112625</v>
+        <v>526136.781375</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>530827.5605624999</v>
+        <v>519798.22931250004</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>537180.897375</v>
+        <v>526151.566125</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>537660.9136874999</v>
+        <v>526631.5824375</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>540593.3388749999</v>
+        <v>529564.007625</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>538269.3851249999</v>
+        <v>527240.053875</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>538836.5998125</v>
+        <v>527807.2685625</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>541201.1229375</v>
+        <v>530171.7916875</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>542582.6709375</v>
+        <v>531553.3396875</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>546285.6202499999</v>
+        <v>535256.289</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>541168.6640625</v>
+        <v>530139.3328125001</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>545483.28375</v>
+        <v>534453.9525</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>542245.2112499999</v>
+        <v>531215.88</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>543562.261875</v>
+        <v>532532.930625</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>546306.687375</v>
+        <v>535277.356125</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>550213.3033125</v>
+        <v>539183.9720625001</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>543737.0034375</v>
+        <v>532707.6721875</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>544775.95875</v>
+        <v>533746.6275000001</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>547716.835875</v>
+        <v>536687.5046250001</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>545183.58525</v>
+        <v>534154.2540000001</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>549695.9218125</v>
+        <v>538666.5905625001</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>546818.3426249999</v>
+        <v>535789.011375</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>548347.40325</v>
+        <v>537318.072</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>556569.8338125</v>
+        <v>545540.5025625001</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>557797.0501875</v>
+        <v>546767.7189375</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>560735.1508124999</v>
+        <v>549705.8195625</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>569867.82675</v>
+        <v>558838.4955</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>543972.1288124999</v>
+        <v>532942.7975625</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>547007.1082499999</v>
+        <v>535977.777</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>550729.64325</v>
+        <v>539700.312</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>555615.7496249999</v>
+        <v>544586.418375</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>542090.1770624999</v>
+        <v>531060.8458125</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>544956.0225</v>
+        <v>533926.69125</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>543098.0518125</v>
+        <v>532068.7205625001</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>546471.984375</v>
+        <v>535442.6531250001</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>546961.2459374999</v>
+        <v>535931.9146875</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>550157.43675</v>
+        <v>539128.1055000001</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>544143.5000624999</v>
+        <v>533114.1688125001</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>543039.288</v>
+        <v>532009.95675</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>546998.3673749999</v>
+        <v>535969.036125</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>537530.6173124999</v>
+        <v>526501.2860625</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>547579.3104375</v>
+        <v>536549.9791875</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>546426.3001875</v>
+        <v>535396.9689375</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>551058.3089999999</v>
+        <v>540028.97775</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>545783.97</v>
+        <v>534754.63875</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>548530.848375</v>
+        <v>537501.517125</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>551928.882</v>
+        <v>540899.55075</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>551721.28875</v>
+        <v>540691.9575</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>554124.3275624999</v>
+        <v>543094.9963125</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>559191.9626249999</v>
+        <v>548162.631375</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>557141.292375</v>
+        <v>546111.961125</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>556008.254625</v>
+        <v>544978.923375</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>562006.6379999999</v>
+        <v>550977.30675</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>550447.4353125</v>
+        <v>539418.1040625001</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>554243.4879375</v>
+        <v>543214.1566875001</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>552891.7595624999</v>
+        <v>541862.4283125</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>552595.3918125</v>
+        <v>541566.0605625</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>557445.5131875</v>
+        <v>546416.1819375</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>562037.3926875</v>
+        <v>551008.0614375001</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>568607.8582499999</v>
+        <v>557578.527</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>565611.0052499999</v>
+        <v>554581.674</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>572624.2458749999</v>
+        <v>561594.914625</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>574332.8146875</v>
+        <v>563303.4834375</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>573053.95875</v>
+        <v>562024.6275000001</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>583632.705</v>
+        <v>572603.37375</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>554100.8951249999</v>
+        <v>543071.563875</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>553937.9885625</v>
+        <v>542908.6573125</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>559104.0555</v>
+        <v>548074.72425</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>595782.1528125</v>
+        <v>584752.8215625</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>71865.48750000003</v>
+        <v>70706.11875000004</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -2559,13 +2559,13 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>66867.11249999999</v>
+        <v>66128.15625000001</v>
       </c>
       <c r="E2">
         <v>0.0</v>
       </c>
       <c r="F2">
-        <v>85071.02999999998</v>
+        <v>83302.26000000001</v>
       </c>
       <c r="G2">
         <v>0.0</v>
@@ -2583,13 +2583,13 @@
         <v>0.0</v>
       </c>
       <c r="L2">
-        <v>76175.91</v>
+        <v>74999.745</v>
       </c>
       <c r="M2">
-        <v>71629.39499999999</v>
+        <v>70338.61500000002</v>
       </c>
       <c r="N2">
-        <v>69435.38250000002</v>
+        <v>68251.87124999997</v>
       </c>
       <c r="O2">
         <v>0.0</v>
@@ -2598,7 +2598,7 @@
         <v>0.0</v>
       </c>
       <c r="Q2">
-        <v>89052.57</v>
+        <v>85340.79000000001</v>
       </c>
       <c r="R2">
         <v>0.0</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>29442.946301250035</v>
+        <v>28283.57755125004</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2657,7 +2657,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>29272.839607499976</v>
+        <v>28533.883357500003</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -2667,7 +2667,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>31938.284579999963</v>
+        <v>30169.51457999999</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -2697,17 +2697,17 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>17340.813359999986</v>
+        <v>16164.648359999977</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>22321.23609749999</v>
+        <v>21030.45609750002</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>22333.761742500013</v>
+        <v>21150.25049249996</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2722,7 +2722,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>23037.867652500034</v>
+        <v>19326.087652500035</v>
       </c>
     </row>
     <row r="19" spans="1:1">

--- a/A2_results_step1.5_oneprice.xlsx
+++ b/A2_results_step1.5_oneprice.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d63f66d86bcfcc9a/Master Sustainable Energy/3rd Semester/Renewables in electricity markets/Assignment 1/RenewablesInElectricityMarkets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="115_{8C47A722-D6DB-44A8-80A0-9479B72CDEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="230" yWindow="430" windowWidth="16200" windowHeight="9970" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="profit_dis" sheetId="1" r:id="rId1"/>
-    <sheet name="da_profit_df" r:id="rId5" sheetId="2"/>
-    <sheet name="outofsample_profit_hourly_df" r:id="rId6" sheetId="3"/>
+    <sheet name="da_profit_df" sheetId="2" r:id="rId2"/>
+    <sheet name="outofsample_profit_hourly_df" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>x1</t>
   </si>
@@ -449,2016 +449,2016 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36320F36-171E-4C82-BEA6-D9F0CB5C2FD1}">
   <dimension ref="A1:A401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>524969.540625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>524969.54062500002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>526363.2564375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>526363.25643750001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>530447.4658125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>530447.46581249998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>523289.28187500004</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>523507.264875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>523507.26487499999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>525698.6833125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>525698.68331250001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>524869.7776875</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>524892.2055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>524892.20550000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>527263.50075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>527263.50075000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>527002.1655</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>526816.4915625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>526816.49156250001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>524416.3760625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>524416.37606250006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>527356.6989375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>527356.69893750001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>522512.2558125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>522512.25581250002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>521517.5060625</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>523331.58412500005</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>527559.93525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>527559.93524999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>530549.6585625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>530549.65856250003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>527684.11425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>527684.11424999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>527462.3401875</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>529258.64025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>529258.64025000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>529285.0284375</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>533182.2358125</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>529003.6005000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>529003.60050000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>528898.3003125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>528898.30031249998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>532614.106125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>532614.10612500005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>529932.2105625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>529932.21056250005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>534251.0386875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>534251.03868750005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>533174.4991875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>533174.49918749998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>537186.1066875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>537186.10668750003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>529496.8006875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>529496.80068750004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>532536.3718125001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>532536.37181250006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>533811.0043125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>533811.00431250001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>533952.131625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>533952.13162500004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>539326.9395</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>539326.93949999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>535836.203625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>535836.20362499997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>537831.114375</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>538087.1713125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>538087.17131250002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>545433.9720000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>545433.97200000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>531123.1726875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>531123.17268750002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>531936.2145</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>535487.3394375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>535487.33943749999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>542981.4997500001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>542981.49975000008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>542037.36525</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>542037.36525000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>546364.4649375001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>546364.46493750007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>555670.210125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>555670.21012499998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>554342.2295625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>554342.22956250003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>539832.82125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>539832.82125000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>544043.4916875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>544043.49168750003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>542284.0284375</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>545480.568</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>545480.56799999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>546867.5491875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>546867.54918750003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>545404.3419375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>545404.34193750005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>541411.183875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>541411.18387499999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>546513.1605</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>527972.1971250001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>527972.19712500006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>548391.727125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>548391.72712499998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>546482.8063125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>546482.80631250003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>544625.9353125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>544625.93531249999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>543056.7676875</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>543056.76768749999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>547737.99375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>547737.99375000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>557723.700375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>557723.70037500001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>563069.88375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>563069.88375000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>555063.3916875</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>555063.39168750006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>553279.201125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>553279.20112500002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>559996.684875</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>559996.68487500004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>559787.649</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>559787.64899999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>557932.549125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>557932.54912500002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>562505.946</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>560424.1876875</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>560424.18768750003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>551406.4985625</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>550340.7751875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>550340.77518750005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>555752.1136875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>555752.11368750001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>556598.5695</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>556598.56949999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>561810.2158125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>561810.21581249998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>572748.2561250001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>572748.25612500007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>570257.6619375</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>580210.4761875</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>580210.47618750005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>577828.0498125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>577828.04981250002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>593128.6524375001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>593128.65243750007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>558856.1026875001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>558856.10268750007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>557953.0689375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>557953.06893750001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>611601.4254375</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>523267.0779375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>523267.07793750003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>525844.2744375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>525844.27443750005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>524850.6414375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>524850.64143750002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>525182.9844375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>525182.98443750001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>522292.71468750003</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>522325.14618750004</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>524777.348625</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>524777.34862499998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>523715.172375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>523715.17237500002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>523490.66437500005</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>526101.5240625</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>526101.52406249999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>525652.5729375001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>525652.57293750008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>528765.9187500001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>528765.91875000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>525120.131625</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>525120.13162500004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>524391.393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>524391.39300000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>527645.8828125</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>523419.631875</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>523419.63187500002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>526929.0496875</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>526099.8260625</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>526099.82606250001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>525835.6393125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>525835.63931250002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>528149.8306875001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>528149.83068750007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>527540.000625</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>527540.00062499999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>527146.587</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>527146.58700000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>531571.6884375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>531571.68843750004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>527201.7526875</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>527201.75268749997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>527872.6685625</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>527872.66856250004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>527590.4443125001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>527590.44431250007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>532216.9531875</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>532216.95318750001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>530936.0032500001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>530936.00325000007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>530177.6685</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>530177.66850000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>527050.483875</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>527050.48387500003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>526878.5904375</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>526878.59043750004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>527273.4849375</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>527273.48493749998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>527292.534375</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>527292.53437500005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>531000.165375</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>531000.16537499998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>531255.448875</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>530752.6220625</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>530752.62206249998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>532588.0340625</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>535482.0815625</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>535482.08156249998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>534983.9585625001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>534983.95856250008</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>543182.3265</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>543182.32649999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>528633.7704375</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>528633.77043749997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>528717.648</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>528717.64800000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>537276.2664375</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>537276.26643750002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>537239.7031875</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>537239.70318750001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>547704.3564375</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>547704.35643749998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>514852.00312500005</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>516680.1045</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>516680.10450000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>514394.67750000005</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>517209.823875</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>515527.90875</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>515573.4211875</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>517445.59425</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>517445.59425000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>516521.00625000003</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>516734.755125</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>516734.75512500003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>518968.6989375</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>518968.69893750001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>518136.015</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>518136.01500000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>517863.76087500004</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>519139.18312500004</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>515947.47993750003</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>515860.4728125</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>515860.47281250003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>518610.8364375</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>518610.83643750002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>516267.88087500003</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>516413.57381250005</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>514444.6708125</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>514811.97581250005</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>513158.71650000004</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>517152.8495625</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>517152.84956250002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>515221.50337500003</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>515521.0678125</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>518940.56025000004</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>518847.24675000005</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>515412.0384375</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>515412.03843750001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>515837.3535</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>515837.35350000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>513090.7025625</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>513090.70256250002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>517489.58025</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>512310.736875</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>512854.46043750003</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>517689.75675</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>510444.77231250005</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>511281.195</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>511281.19500000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>517343.7613125</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>517343.76131249999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>514874.9896875</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>515486.11181250005</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>505497.36281250004</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>507455.95800000004</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>515090.76056250004</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>509283.67425000004</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>510301.64906250004</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>505474.04175000003</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>506948.1315</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>506948.13150000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>508727.6055</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>508727.60550000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>510808.1983125</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>510808.19831250003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>508893.8435625</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>508893.84356250003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>509951.907</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>509951.90700000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>510999.94350000005</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>509243.6506875</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>509243.65068750002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>510185.499375</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>510185.49937500001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>511428.041625</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>511428.04162500001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>508919.84775</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>508919.84775000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>510191.35856250004</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>514103.251125</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>514103.25112500001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>514311.3181875</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>515065.192125</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>508160.2411875</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>508160.24118750001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>509841.6485625</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>509841.64856250002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>511912.0610625</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>504036.139875</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>504036.13987499999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>507240.1695</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>507240.16950000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>505310.86575</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>506480.0555625</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>506480.05556250003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>502326.77175</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>502326.77175000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>506001.173625</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>504549.56137500005</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>505936.647</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>509247.4528125</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>509247.45281250001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>511732.02543750004</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>507998.57906250004</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>509687.95575</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>509687.95575000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>498350.8839375</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>498350.88393750001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>500409.029625</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>500409.02962500002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>497189.5545</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>497189.55450000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>499193.2905</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>491460.52650000004</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>494021.50706250005</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>506443.7578125</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>488984.1219375</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>488984.12193750002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>507639.88443750003</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>506437.99143750005</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>507630.79125</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>507630.79125000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>508417.9078125</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>508417.90781250002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>506525.992875</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>508520.39793750003</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>507563.44443750003</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>505702.12518750003</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>506745.4786875</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>513248.31093750003</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>514188.61725</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>514188.61725000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>504586.975875</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>505451.4890625</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>505451.48906250001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>507209.40150000004</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>508180.09931250004</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>500106.7216875</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>500106.72168750002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>501551.86143750005</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>501739.359375</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>503011.607625</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>498169.23318750004</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>500053.515</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>500053.51500000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>501640.4263125</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>501640.42631250003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>501750.23681250005</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>503381.02293750003</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>507155.42456250003</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>508187.854875</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>508187.85487500002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>504177.2454375</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>504177.24543750001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>492940.948125</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>497213.9113125</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>497213.91131250001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>491352.129375</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>491352.12937500002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>493509.23568750004</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>484167.6024375</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>484167.60243750003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>486932.934375</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>486932.93437500001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>500972.51550000004</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>504109.87950000004</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>475969.629</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>475969.62900000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>479418.108</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>479418.10800000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>511001.43206250004</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>512667.1471875</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>512667.14718750003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>513717.4198125</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>513717.41981250001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>507962.2089375</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>507962.20893750002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>510317.92312500003</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>512623.1356875</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>512623.13568750001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>513670.791</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>513670.79100000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>511504.7145</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>512890.078875</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
+        <v>512890.07887500001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>513975.7269375</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>512304.511125</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>512304.51112500002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>513579.0395625</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>513579.03956250002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>514884.26268750004</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>513959.5149375</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>510220.63950000005</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>512845.46925</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
+        <v>512845.46925000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>514137.1914375</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
+        <v>514137.19143750001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>515348.0476875</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>515348.04768750002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>508638.114375</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>509455.5500625</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>511088.5029375</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>511088.50293750002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>512980.7330625</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
+        <v>512980.73306250002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>507157.723875</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>507157.72387500003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>509479.94625000004</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>511477.49925000005</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>509746.8555</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
+        <v>509746.85550000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>511734.55575</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>513771.92287500005</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>513808.16606250004</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>515447.36568750005</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>510121.11881250003</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>504150.39300000004</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>509891.0394375</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>503759.766</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>507594.8431875</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
+        <v>507594.84318750002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>510314.42025</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
+        <v>510314.42025000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>514394.24137500004</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>496298.5625625</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
+        <v>496298.56256250001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>525099.9361875</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
+        <v>525099.93618750002</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>527603.418375</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
+        <v>527603.41837500001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>529211.2245</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
+        <v>529211.22450000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>523804.56281250005</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>524192.19693750003</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>524907.9639375</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
+        <v>524907.96393750003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>527188.2350625</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>527321.1294375</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
+        <v>527321.12943750003</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>530348.9998125</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+        <v>530348.99981249997</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>524121.6751875</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
+        <v>524121.67518750002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>521817.56381250004</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>526548.1978125001</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
+        <v>526548.19781250006</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>529951.2991875</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
+        <v>529951.29918750003</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>526318.371</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
+        <v>526318.37100000004</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>526415.5599375</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
+        <v>526415.55993750005</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>529878.1460625001</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
+        <v>529878.14606250008</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>529078.2830625001</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
+        <v>529078.28306250006</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>529269.078375</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
+        <v>529269.07837500004</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>533341.64025</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
+        <v>533341.64025000005</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>530170.5965625</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>534656.2875</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
+        <v>534656.28749999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>529956.7725000001</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
+        <v>529956.77250000008</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>531444.0751875</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
+        <v>531444.07518749998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>531934.9149375</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
+        <v>531934.91493750003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>535821.665625</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
+        <v>535821.66562500002</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>533796.0748125</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
+        <v>533796.07481250004</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>534362.628375</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
+        <v>534362.62837499997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>540283.644375</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
+        <v>540283.64437500003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>535840.485</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
+        <v>535840.48499999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>536307.267</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
+        <v>536307.26699999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>540427.0164375</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
+        <v>540427.01643750002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>541150.59375</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>549441.84675</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
+        <v>549441.84675000003</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>536015.5944375</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>544485.770625</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>554928.937125</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
+        <v>554928.93712500005</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>526242.798375</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
+        <v>526242.79837500001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>527255.354625</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
+        <v>527255.35462500004</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>530230.6111875001</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
+        <v>530230.61118750006</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>531673.07625</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
+        <v>531673.07625000004</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>535161.9706875</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
+        <v>535161.97068749997</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>527413.4975625001</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
+        <v>527413.49756250007</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>525594.887625</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
+        <v>525594.88762499997</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>527892.601875</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
+        <v>527892.60187500005</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>531077.39625</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
+        <v>531077.39624999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>523304.89012500003</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>523647.00056250003</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>526136.781375</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
+        <v>526136.78137500002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>519798.22931250004</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>526151.566125</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
+        <v>526151.56612500001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336">
-        <v>526631.5824375</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
+        <v>526631.58243750001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>529564.007625</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
+        <v>529564.00762499997</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>527240.053875</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
+        <v>527240.05387499998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>527807.2685625</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
+        <v>527807.26856250002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>530171.7916875</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
+        <v>530171.79168749996</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341">
-        <v>531553.3396875</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
+        <v>531553.33968750003</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342">
-        <v>535256.289</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
+        <v>535256.28899999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343">
-        <v>530139.3328125001</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
+        <v>530139.33281250007</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>534453.9525</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
+        <v>534453.95250000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>531215.88</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>532532.930625</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
+        <v>532532.93062500004</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>535277.356125</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
+        <v>535277.35612500005</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>539183.9720625001</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
+        <v>539183.97206250008</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>532707.6721875</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
+        <v>532707.67218750005</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>533746.6275000001</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
+        <v>533746.62750000006</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>536687.5046250001</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
+        <v>536687.50462500006</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>534154.2540000001</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
+        <v>534154.25400000007</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>538666.5905625001</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
+        <v>538666.59056250006</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>535789.011375</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>537318.072</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
+        <v>537318.07200000004</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>545540.5025625001</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
+        <v>545540.50256250007</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>546767.7189375</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
+        <v>546767.71893750003</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>549705.8195625</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
+        <v>549705.81956249999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>558838.4955</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
+        <v>558838.49549999996</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>532942.7975625</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>535977.777</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>539700.312</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
+        <v>539700.31200000003</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>544586.418375</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
+        <v>544586.41837500001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>531060.8458125</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
+        <v>531060.84581249999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>533926.69125</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
+        <v>533926.69125000003</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>532068.7205625001</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
+        <v>532068.72056250006</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>535442.6531250001</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
+        <v>535442.65312500007</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>535931.9146875</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
+        <v>535931.91468749999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>539128.1055000001</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
+        <v>539128.10550000006</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>533114.1688125001</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
+        <v>533114.16881250008</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>532009.95675</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
+        <v>532009.95675000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>535969.036125</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
+        <v>535969.03612499998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>526501.2860625</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
+        <v>526501.28606249997</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>536549.9791875</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
+        <v>536549.97918749996</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>535396.9689375</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
+        <v>535396.96893750003</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>540028.97775</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
+        <v>540028.97774999996</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>534754.63875</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
+        <v>534754.63875000004</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>537501.517125</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
+        <v>537501.51712500001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>540899.55075</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
+        <v>540899.55075000005</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>540691.9575</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
+        <v>540691.95750000002</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>543094.9963125</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
+        <v>543094.99631249998</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>548162.631375</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>546111.961125</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
+        <v>546111.96112500003</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>544978.923375</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
+        <v>544978.92337500001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>550977.30675</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
+        <v>550977.30674999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386">
-        <v>539418.1040625001</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
+        <v>539418.10406250006</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387">
-        <v>543214.1566875001</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
+        <v>543214.15668750007</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
-        <v>541862.4283125</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
+        <v>541862.42831250001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>541566.0605625</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
+        <v>541566.06056250003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390">
-        <v>546416.1819375</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
+        <v>546416.18193750002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>551008.0614375001</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
+        <v>551008.06143750006</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>557578.527</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>554581.674</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>561594.914625</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
+        <v>561594.91462499998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>563303.4834375</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
+        <v>563303.48343749996</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396">
-        <v>562024.6275000001</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
+        <v>562024.62750000006</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397">
-        <v>572603.37375</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
+        <v>572603.37375000003</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>543071.563875</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
+        <v>543071.56387499999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>542908.6573125</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
+        <v>542908.65731250006</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400">
-        <v>548074.72425</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
+        <v>548074.72424999997</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401">
-        <v>584752.8215625</v>
+        <v>584752.82156249997</v>
       </c>
     </row>
   </sheetData>
@@ -2467,14 +2467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B5C5C2-0DB7-4D7D-BA37-63DCAEFFD28E}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2548,78 +2548,78 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>70706.11875000004</v>
+        <v>70706.118750000038</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>66128.15625000001</v>
+        <v>66128.156250000015</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>83302.26000000001</v>
+        <v>83302.260000000009</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>74999.745</v>
+        <v>74999.744999999995</v>
       </c>
       <c r="M2">
         <v>70338.61500000002</v>
       </c>
       <c r="N2">
-        <v>68251.87124999997</v>
+        <v>68251.871249999967</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>85340.79000000001</v>
+        <v>85340.790000000008</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2628,134 +2628,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C4CB79-BC7D-465F-9D5D-FF60D6DBDDD6}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>28283.57755125004</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>28618.124624999993</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>26859.236175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>26859.236174999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>28533.883357500003</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>28261.116877499997</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>30169.51457999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>30169.514579999988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>34311.14199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>34311.141989999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>42121.11224249999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>42121.112242499992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>42042.79106999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>42042.791069999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>27453.528832500007</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>22270.863791250005</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>16164.648359999977</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>21030.45609750002</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>21150.25049249996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>21150.250492499959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16429.029738750003</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>17958.74531625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>17958.745316249999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>19326.087652500035</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>28011.762134999997</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>31844.258100000006</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>35429.33859749999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>35429.338597499991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>34560.705611249985</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>40269.10572000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>40269.105720000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>34572.371456249995</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>32297.649153749997</v>
       </c>

--- a/A2_results_step1.5_oneprice.xlsx
+++ b/A2_results_step1.5_oneprice.xlsx
@@ -463,2002 +463,2002 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>535998.871875</v>
+        <v>524969.540625</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>537392.5876874999</v>
+        <v>526363.2564375</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>541476.7970624999</v>
+        <v>530447.4658125</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>534318.6131249999</v>
+        <v>523289.28187500004</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>534536.5961249999</v>
+        <v>523507.264875</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>536728.0145625</v>
+        <v>525698.6833125</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>535899.1089374999</v>
+        <v>524869.7776875</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>535921.53675</v>
+        <v>524892.2055</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>538292.8319999999</v>
+        <v>527263.50075</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>538031.4967499999</v>
+        <v>527002.1655</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>537845.8228125</v>
+        <v>526816.4915625</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>535445.7073125</v>
+        <v>524416.3760625</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>538386.0301875</v>
+        <v>527356.6989375</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>533541.5870625</v>
+        <v>522512.2558125</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>532546.8373125</v>
+        <v>521517.5060625</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>534360.915375</v>
+        <v>523331.58412500005</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>538589.2664999999</v>
+        <v>527559.93525</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>541578.9898125</v>
+        <v>530549.6585625</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>538713.4454999999</v>
+        <v>527684.11425</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>538491.6714374999</v>
+        <v>527462.3401875</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>540287.9715</v>
+        <v>529258.64025</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>540314.3596874999</v>
+        <v>529285.0284375</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>544211.5670624999</v>
+        <v>533182.2358125</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>540032.93175</v>
+        <v>529003.6005000001</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>539927.6315624999</v>
+        <v>528898.3003125</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>543643.437375</v>
+        <v>532614.106125</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>540961.5418125</v>
+        <v>529932.2105625</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>545280.3699375</v>
+        <v>534251.0386875</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>544203.8304374999</v>
+        <v>533174.4991875</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>548215.4379375</v>
+        <v>537186.1066875</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>540526.1319375</v>
+        <v>529496.8006875</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>543565.7030625</v>
+        <v>532536.3718125001</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>544840.3355624999</v>
+        <v>533811.0043125</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>544981.462875</v>
+        <v>533952.131625</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>550356.2707499999</v>
+        <v>539326.9395</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>546865.5348749999</v>
+        <v>535836.203625</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>548860.4456249999</v>
+        <v>537831.114375</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>549116.5025625</v>
+        <v>538087.1713125</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>556463.30325</v>
+        <v>545433.9720000001</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>542152.5039375</v>
+        <v>531123.1726875</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>542965.5457499999</v>
+        <v>531936.2145</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>546516.6706874999</v>
+        <v>535487.3394375</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>554010.831</v>
+        <v>542981.4997500001</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>553066.6965</v>
+        <v>542037.36525</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>557393.7961875</v>
+        <v>546364.4649375001</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>566699.5413749999</v>
+        <v>555670.210125</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>565371.5608125</v>
+        <v>554342.2295625</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>550862.1525</v>
+        <v>539832.82125</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>555072.8229375</v>
+        <v>544043.4916875</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>553313.3596874999</v>
+        <v>542284.0284375</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>556509.89925</v>
+        <v>545480.568</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>557896.8804375</v>
+        <v>546867.5491875</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>556433.6731875</v>
+        <v>545404.3419375</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>552440.5151249999</v>
+        <v>541411.183875</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>557542.4917499999</v>
+        <v>546513.1605</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>539001.528375</v>
+        <v>527972.1971250001</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58">
-        <v>559421.0583749999</v>
+        <v>548391.727125</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>557512.1375625</v>
+        <v>546482.8063125</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>555655.2665624999</v>
+        <v>544625.9353125</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>554086.0989374999</v>
+        <v>543056.7676875</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>558767.325</v>
+        <v>547737.99375</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>568753.031625</v>
+        <v>557723.700375</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>574099.215</v>
+        <v>563069.88375</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>566092.7229375</v>
+        <v>555063.3916875</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>564308.532375</v>
+        <v>553279.201125</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>571026.016125</v>
+        <v>559996.684875</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>570816.9802499999</v>
+        <v>559787.649</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>568961.880375</v>
+        <v>557932.549125</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>573535.2772499999</v>
+        <v>562505.946</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>571453.5189375</v>
+        <v>560424.1876875</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>562435.8298124999</v>
+        <v>551406.4985625</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>561370.1064375</v>
+        <v>550340.7751875</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74">
-        <v>566781.4449374999</v>
+        <v>555752.1136875</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>567627.9007499999</v>
+        <v>556598.5695</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76">
-        <v>572839.5470624999</v>
+        <v>561810.2158125</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>583777.587375</v>
+        <v>572748.2561250001</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>581286.9931874999</v>
+        <v>570257.6619375</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>591239.8074375</v>
+        <v>580210.4761875</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>588857.3810625</v>
+        <v>577828.0498125</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>604157.9836875</v>
+        <v>593128.6524375001</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>569885.4339375</v>
+        <v>558856.1026875001</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83">
-        <v>568982.4001874999</v>
+        <v>557953.0689375</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84">
-        <v>622630.7566874999</v>
+        <v>611601.4254375</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>534296.4091874999</v>
+        <v>523267.0779375</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>536873.6056875</v>
+        <v>525844.2744375</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>535879.9726875</v>
+        <v>524850.6414375</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>536212.3156874999</v>
+        <v>525182.9844375</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>533322.0459375</v>
+        <v>522292.71468750003</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>533354.4774374999</v>
+        <v>522325.14618750004</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>535806.6798749999</v>
+        <v>524777.348625</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>534744.5036249999</v>
+        <v>523715.172375</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>534519.995625</v>
+        <v>523490.66437500005</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>537130.8553124999</v>
+        <v>526101.5240625</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>536681.9041875</v>
+        <v>525652.5729375001</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>539795.25</v>
+        <v>528765.9187500001</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>536149.462875</v>
+        <v>525120.131625</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>535420.72425</v>
+        <v>524391.393</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>538675.2140624999</v>
+        <v>527645.8828125</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>534448.963125</v>
+        <v>523419.631875</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>537958.3809374999</v>
+        <v>526929.0496875</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>537129.1573124999</v>
+        <v>526099.8260625</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>536864.9705625</v>
+        <v>525835.6393125</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>539179.1619375</v>
+        <v>528149.8306875001</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>538569.3318749999</v>
+        <v>527540.000625</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>538175.91825</v>
+        <v>527146.587</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>542601.0196875</v>
+        <v>531571.6884375</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>538231.0839374999</v>
+        <v>527201.7526875</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>538901.9998125</v>
+        <v>527872.6685625</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>538619.7755625</v>
+        <v>527590.4443125001</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>543246.2844374999</v>
+        <v>532216.9531875</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>541965.3345</v>
+        <v>530936.0032500001</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>541206.99975</v>
+        <v>530177.6685</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>538079.815125</v>
+        <v>527050.483875</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>537907.9216875</v>
+        <v>526878.5904375</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>538302.8161874999</v>
+        <v>527273.4849375</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>538321.865625</v>
+        <v>527292.534375</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>542029.4966249999</v>
+        <v>531000.165375</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>542284.7801249999</v>
+        <v>531255.448875</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>541781.9533124999</v>
+        <v>530752.6220625</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>543617.3653124999</v>
+        <v>532588.0340625</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>546511.4128124999</v>
+        <v>535482.0815625</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>546013.2898125</v>
+        <v>534983.9585625001</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>554211.6577499999</v>
+        <v>543182.3265</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>539663.1016874999</v>
+        <v>528633.7704375</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>539746.97925</v>
+        <v>528717.648</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>548305.5976875</v>
+        <v>537276.2664375</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>548269.0344374999</v>
+        <v>537239.7031875</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>558733.6876874999</v>
+        <v>547704.3564375</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>525881.334375</v>
+        <v>514852.00312500005</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>527709.43575</v>
+        <v>516680.1045</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>525424.0087499999</v>
+        <v>514394.67750000005</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>528239.1551249999</v>
+        <v>517209.823875</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>526557.24</v>
+        <v>515527.90875</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>526602.7524374999</v>
+        <v>515573.4211875</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>528474.9254999999</v>
+        <v>517445.59425</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>527550.3374999999</v>
+        <v>516521.00625000003</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>527764.086375</v>
+        <v>516734.755125</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>529998.0301875</v>
+        <v>518968.6989375</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>529165.34625</v>
+        <v>518136.015</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>528893.092125</v>
+        <v>517863.76087500004</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>530168.5143749999</v>
+        <v>519139.18312500004</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>526976.8111874999</v>
+        <v>515947.47993750003</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>526889.8040624999</v>
+        <v>515860.4728125</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>529640.1676874999</v>
+        <v>518610.8364375</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>527297.212125</v>
+        <v>516267.88087500003</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>527442.9050624999</v>
+        <v>516413.57381250005</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>525474.0020625</v>
+        <v>514444.6708125</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>525841.3070624999</v>
+        <v>514811.97581250005</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>524188.04774999997</v>
+        <v>513158.71650000004</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>528182.1808125</v>
+        <v>517152.8495625</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>526250.8346249999</v>
+        <v>515221.50337500003</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>526550.3990625</v>
+        <v>515521.0678125</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>529969.8914999999</v>
+        <v>518940.56025000004</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>529876.578</v>
+        <v>518847.24675000005</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>526441.3696875</v>
+        <v>515412.0384375</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>526866.6847499999</v>
+        <v>515837.3535</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>524120.03381249995</v>
+        <v>513090.7025625</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>528518.9114999999</v>
+        <v>517489.58025</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>523340.06812499993</v>
+        <v>512310.736875</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>523883.79168749996</v>
+        <v>512854.46043750003</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>528719.088</v>
+        <v>517689.75675</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>521474.1035625</v>
+        <v>510444.77231250005</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>522310.52624999994</v>
+        <v>511281.195</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>528373.0925624999</v>
+        <v>517343.7613125</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>525904.3209375</v>
+        <v>514874.9896875</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>526515.4430625</v>
+        <v>515486.11181250005</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>516526.69406249997</v>
+        <v>505497.36281250004</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>518485.28925</v>
+        <v>507455.95800000004</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>526120.0918124999</v>
+        <v>515090.76056250004</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>520313.00549999997</v>
+        <v>509283.67425000004</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>521330.9803125</v>
+        <v>510301.64906250004</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>516503.37299999996</v>
+        <v>505474.04175000003</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>517977.46274999995</v>
+        <v>506948.1315</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>519756.93674999994</v>
+        <v>508727.6055</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>521837.52956249996</v>
+        <v>510808.1983125</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>519923.17481249996</v>
+        <v>508893.8435625</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>520981.23824999994</v>
+        <v>509951.907</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>522029.27475</v>
+        <v>510999.94350000005</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>520272.98193749995</v>
+        <v>509243.6506875</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>521214.83062499994</v>
+        <v>510185.499375</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>522457.37287499994</v>
+        <v>511428.041625</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>519949.17899999995</v>
+        <v>508919.84775</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>521220.6898125</v>
+        <v>510191.35856250004</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>525132.582375</v>
+        <v>514103.251125</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>525340.6494374999</v>
+        <v>514311.3181875</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>526094.523375</v>
+        <v>515065.192125</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>519189.57243749994</v>
+        <v>508160.2411875</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>520870.97981249995</v>
+        <v>509841.6485625</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>522941.3923124999</v>
+        <v>511912.0610625</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>515065.4711249999</v>
+        <v>504036.139875</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>518269.50074999995</v>
+        <v>507240.1695</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>516340.1969999999</v>
+        <v>505310.86575</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>517509.38681249996</v>
+        <v>506480.0555625</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>513356.10299999994</v>
+        <v>502326.77175</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>517030.5048749999</v>
+        <v>506001.173625</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>515578.892625</v>
+        <v>504549.56137500005</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>516965.9782499999</v>
+        <v>505936.647</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>520276.78406249994</v>
+        <v>509247.4528125</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>522761.35668749997</v>
+        <v>511732.02543750004</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>519027.91031249997</v>
+        <v>507998.57906250004</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>520717.28699999995</v>
+        <v>509687.95575</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>509380.21518749994</v>
+        <v>498350.8839375</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>511438.36087499995</v>
+        <v>500409.029625</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>508218.88574999996</v>
+        <v>497189.5545</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>510222.62174999993</v>
+        <v>499193.2905</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>502489.85774999997</v>
+        <v>491460.52650000004</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>505050.8383125</v>
+        <v>494021.50706250005</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>517473.08906249993</v>
+        <v>506443.7578125</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210">
-        <v>500013.45318749995</v>
+        <v>488984.1219375</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>518669.21568749996</v>
+        <v>507639.88443750003</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>517467.3226875</v>
+        <v>506437.99143750005</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>518660.12249999994</v>
+        <v>507630.79125</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>519447.23906249995</v>
+        <v>508417.9078125</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>517555.3241249999</v>
+        <v>506525.992875</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>519549.72918749996</v>
+        <v>508520.39793750003</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>518592.77568749996</v>
+        <v>507563.44443750003</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>516731.45643749996</v>
+        <v>505702.12518750003</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>517774.80993749993</v>
+        <v>506745.4786875</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>524277.64218749997</v>
+        <v>513248.31093750003</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>525217.9484999999</v>
+        <v>514188.61725</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>515616.30712499993</v>
+        <v>504586.975875</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>516480.82031249994</v>
+        <v>505451.4890625</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>518238.73274999997</v>
+        <v>507209.40150000004</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>519209.43056249997</v>
+        <v>508180.09931250004</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>511136.05293749995</v>
+        <v>500106.7216875</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>512581.1926875</v>
+        <v>501551.86143750005</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>512768.69062499993</v>
+        <v>501739.359375</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>514040.93887499993</v>
+        <v>503011.607625</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>509198.56443749997</v>
+        <v>498169.23318750004</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>511082.84624999994</v>
+        <v>500053.515</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>512669.75756249996</v>
+        <v>501640.4263125</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>512779.5680625</v>
+        <v>501750.23681250005</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>514410.35418749996</v>
+        <v>503381.02293750003</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>518184.75581249996</v>
+        <v>507155.42456250003</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>519217.18612499995</v>
+        <v>508187.854875</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>515206.57668749994</v>
+        <v>504177.2454375</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>503970.2793749999</v>
+        <v>492940.948125</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>508243.24256249995</v>
+        <v>497213.9113125</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>502381.46062499995</v>
+        <v>491352.129375</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>504538.56693749997</v>
+        <v>493509.23568750004</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>495196.93368749996</v>
+        <v>484167.6024375</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>497962.26562499994</v>
+        <v>486932.934375</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>512001.84674999997</v>
+        <v>500972.51550000004</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>515139.21074999997</v>
+        <v>504109.87950000004</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246">
-        <v>486998.96024999995</v>
+        <v>475969.629</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>490447.43924999994</v>
+        <v>479418.108</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>522030.76331249997</v>
+        <v>511001.43206250004</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>523696.47843749996</v>
+        <v>512667.1471875</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>524746.7510624999</v>
+        <v>513717.4198125</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>518991.54018749995</v>
+        <v>507962.2089375</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>521347.25437499996</v>
+        <v>510317.92312500003</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>523652.46693749994</v>
+        <v>512623.1356875</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>524700.1222499999</v>
+        <v>513670.791</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>522534.04574999993</v>
+        <v>511504.7145</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>523919.41012499994</v>
+        <v>512890.078875</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>525005.0581875</v>
+        <v>513975.7269375</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>523333.84237499995</v>
+        <v>512304.511125</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>524608.3708124999</v>
+        <v>513579.0395625</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>525913.5939374999</v>
+        <v>514884.26268750004</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>524988.8461874999</v>
+        <v>513959.5149375</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>521249.97075</v>
+        <v>510220.63950000005</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>523874.80049999995</v>
+        <v>512845.46925</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>525166.5226875</v>
+        <v>514137.1914375</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>526377.3789375</v>
+        <v>515348.0476875</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>519667.44562499993</v>
+        <v>508638.114375</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>520484.8813124999</v>
+        <v>509455.5500625</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>522117.83418749995</v>
+        <v>511088.5029375</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>524010.06431249995</v>
+        <v>512980.7330625</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>518187.05512499996</v>
+        <v>507157.723875</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>520509.27749999997</v>
+        <v>509479.94625000004</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>522506.8305</v>
+        <v>511477.49925000005</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>520776.18674999994</v>
+        <v>509746.8555</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>522763.88699999993</v>
+        <v>511734.55575</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>524801.254125</v>
+        <v>513771.92287500005</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>524837.4973124999</v>
+        <v>513808.16606250004</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>526476.6969374999</v>
+        <v>515447.36568750005</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>521150.45006249996</v>
+        <v>510121.11881250003</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>515179.72424999997</v>
+        <v>504150.39300000004</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>520920.37068749993</v>
+        <v>509891.0394375</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>514789.09724999993</v>
+        <v>503759.766</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>518624.17443749995</v>
+        <v>507594.8431875</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>521343.75149999995</v>
+        <v>510314.42025</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>525423.5726249999</v>
+        <v>514394.24137500004</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>507327.89381249994</v>
+        <v>496298.5625625</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>536129.2674375</v>
+        <v>525099.9361875</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>538632.7496249999</v>
+        <v>527603.418375</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>540240.5557499999</v>
+        <v>529211.2245</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>534833.8940625</v>
+        <v>523804.56281250005</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>535221.5281875</v>
+        <v>524192.19693750003</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>535937.2951875</v>
+        <v>524907.9639375</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>538217.5663124999</v>
+        <v>527188.2350625</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>538350.4606875</v>
+        <v>527321.1294375</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>541378.3310624999</v>
+        <v>530348.9998125</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>535151.0064375</v>
+        <v>524121.6751875</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>532846.8950624999</v>
+        <v>521817.56381250004</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>537577.5290625</v>
+        <v>526548.1978125001</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298">
-        <v>540980.6304375</v>
+        <v>529951.2991875</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>537347.70225</v>
+        <v>526318.371</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>537444.8911875</v>
+        <v>526415.5599375</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>540907.4773125</v>
+        <v>529878.1460625001</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>540107.6143125</v>
+        <v>529078.2830625001</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>540298.409625</v>
+        <v>529269.078375</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>544370.9715</v>
+        <v>533341.64025</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>541199.9278124999</v>
+        <v>530170.5965625</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>545685.6187499999</v>
+        <v>534656.2875</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>540986.10375</v>
+        <v>529956.7725000001</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>542473.4064374999</v>
+        <v>531444.0751875</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>542964.2461875</v>
+        <v>531934.9149375</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>546850.996875</v>
+        <v>535821.665625</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>544825.4060625</v>
+        <v>533796.0748125</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>545391.9596249999</v>
+        <v>534362.628375</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>551312.975625</v>
+        <v>540283.644375</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>546869.8162499999</v>
+        <v>535840.485</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>547336.5982499999</v>
+        <v>536307.267</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>551456.3476875</v>
+        <v>540427.0164375</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>552179.9249999999</v>
+        <v>541150.59375</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>560471.178</v>
+        <v>549441.84675</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>547044.9256874999</v>
+        <v>536015.5944375</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>555515.1018749999</v>
+        <v>544485.770625</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>565958.268375</v>
+        <v>554928.937125</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>537272.129625</v>
+        <v>526242.798375</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>538284.685875</v>
+        <v>527255.354625</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>541259.9424375</v>
+        <v>530230.6111875001</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>542702.4075</v>
+        <v>531673.07625</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>546191.3019374999</v>
+        <v>535161.9706875</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>538442.8288125</v>
+        <v>527413.4975625001</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>536624.2188749999</v>
+        <v>525594.887625</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>538921.933125</v>
+        <v>527892.601875</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>542106.7274999999</v>
+        <v>531077.39625</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>534334.221375</v>
+        <v>523304.89012500003</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>534676.3318124999</v>
+        <v>523647.00056250003</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>537166.112625</v>
+        <v>526136.781375</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>530827.5605624999</v>
+        <v>519798.22931250004</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>537180.897375</v>
+        <v>526151.566125</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>537660.9136874999</v>
+        <v>526631.5824375</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>540593.3388749999</v>
+        <v>529564.007625</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>538269.3851249999</v>
+        <v>527240.053875</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>538836.5998125</v>
+        <v>527807.2685625</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>541201.1229375</v>
+        <v>530171.7916875</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>542582.6709375</v>
+        <v>531553.3396875</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>546285.6202499999</v>
+        <v>535256.289</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>541168.6640625</v>
+        <v>530139.3328125001</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>545483.28375</v>
+        <v>534453.9525</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>542245.2112499999</v>
+        <v>531215.88</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>543562.261875</v>
+        <v>532532.930625</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347">
-        <v>546306.687375</v>
+        <v>535277.356125</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>550213.3033125</v>
+        <v>539183.9720625001</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>543737.0034375</v>
+        <v>532707.6721875</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>544775.95875</v>
+        <v>533746.6275000001</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>547716.835875</v>
+        <v>536687.5046250001</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>545183.58525</v>
+        <v>534154.2540000001</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>549695.9218125</v>
+        <v>538666.5905625001</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>546818.3426249999</v>
+        <v>535789.011375</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>548347.40325</v>
+        <v>537318.072</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>556569.8338125</v>
+        <v>545540.5025625001</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>557797.0501875</v>
+        <v>546767.7189375</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>560735.1508124999</v>
+        <v>549705.8195625</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359">
-        <v>569867.82675</v>
+        <v>558838.4955</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>543972.1288124999</v>
+        <v>532942.7975625</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>547007.1082499999</v>
+        <v>535977.777</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>550729.64325</v>
+        <v>539700.312</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>555615.7496249999</v>
+        <v>544586.418375</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>542090.1770624999</v>
+        <v>531060.8458125</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>544956.0225</v>
+        <v>533926.69125</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>543098.0518125</v>
+        <v>532068.7205625001</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>546471.984375</v>
+        <v>535442.6531250001</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>546961.2459374999</v>
+        <v>535931.9146875</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>550157.43675</v>
+        <v>539128.1055000001</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>544143.5000624999</v>
+        <v>533114.1688125001</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>543039.288</v>
+        <v>532009.95675</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>546998.3673749999</v>
+        <v>535969.036125</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>537530.6173124999</v>
+        <v>526501.2860625</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>547579.3104375</v>
+        <v>536549.9791875</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>546426.3001875</v>
+        <v>535396.9689375</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>551058.3089999999</v>
+        <v>540028.97775</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>545783.97</v>
+        <v>534754.63875</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>548530.848375</v>
+        <v>537501.517125</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>551928.882</v>
+        <v>540899.55075</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>551721.28875</v>
+        <v>540691.9575</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>554124.3275624999</v>
+        <v>543094.9963125</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>559191.9626249999</v>
+        <v>548162.631375</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>557141.292375</v>
+        <v>546111.961125</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>556008.254625</v>
+        <v>544978.923375</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>562006.6379999999</v>
+        <v>550977.30675</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>550447.4353125</v>
+        <v>539418.1040625001</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>554243.4879375</v>
+        <v>543214.1566875001</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>552891.7595624999</v>
+        <v>541862.4283125</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>552595.3918125</v>
+        <v>541566.0605625</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>557445.5131875</v>
+        <v>546416.1819375</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>562037.3926875</v>
+        <v>551008.0614375001</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>568607.8582499999</v>
+        <v>557578.527</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>565611.0052499999</v>
+        <v>554581.674</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>572624.2458749999</v>
+        <v>561594.914625</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>574332.8146875</v>
+        <v>563303.4834375</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>573053.95875</v>
+        <v>562024.6275000001</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>583632.705</v>
+        <v>572603.37375</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>554100.8951249999</v>
+        <v>543071.563875</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>553937.9885625</v>
+        <v>542908.6573125</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>559104.0555</v>
+        <v>548074.72425</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>595782.1528125</v>
+        <v>584752.8215625</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>71865.48750000003</v>
+        <v>70706.11874999998</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -2559,13 +2559,13 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>66867.11249999999</v>
+        <v>66128.15625000006</v>
       </c>
       <c r="E2">
         <v>0.0</v>
       </c>
       <c r="F2">
-        <v>85071.02999999998</v>
+        <v>83302.25999999997</v>
       </c>
       <c r="G2">
         <v>0.0</v>
@@ -2583,13 +2583,13 @@
         <v>0.0</v>
       </c>
       <c r="L2">
-        <v>76175.91</v>
+        <v>74999.745</v>
       </c>
       <c r="M2">
-        <v>71629.39499999999</v>
+        <v>70338.61499999999</v>
       </c>
       <c r="N2">
-        <v>69435.38250000002</v>
+        <v>68251.87125</v>
       </c>
       <c r="O2">
         <v>0.0</v>
@@ -2598,7 +2598,7 @@
         <v>0.0</v>
       </c>
       <c r="Q2">
-        <v>89052.57</v>
+        <v>85340.79000000002</v>
       </c>
       <c r="R2">
         <v>0.0</v>
@@ -2642,112 +2642,112 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>29442.946301250035</v>
+        <v>28283.577551249982</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>28618.124624999993</v>
+        <v>28618.124625000008</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>26859.236175</v>
+        <v>26859.236175000005</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>29272.839607499976</v>
+        <v>28533.883357500046</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>28261.116877499997</v>
+        <v>28261.116877500015</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>31938.284579999963</v>
+        <v>30169.51457999998</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>34311.14199</v>
+        <v>34311.141990000004</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>42121.11224249999</v>
+        <v>42121.1122425</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>42042.79106999999</v>
+        <v>42042.79107000001</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>27453.528832500007</v>
+        <v>27453.528832500004</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>22270.863791250005</v>
+        <v>22270.863791249998</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>17340.813359999986</v>
+        <v>16164.64836</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>22321.23609749999</v>
+        <v>21030.45609749999</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>22333.761742500013</v>
+        <v>21150.25049250001</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>16429.029738750003</v>
+        <v>16429.02973875</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>17958.74531625</v>
+        <v>17958.745316250002</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
-        <v>23037.867652500034</v>
+        <v>19326.087652500035</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>28011.762134999997</v>
+        <v>28011.76213499999</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>31844.258100000006</v>
+        <v>31844.258099999992</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>35429.33859749999</v>
+        <v>35429.338597500006</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>34560.705611249985</v>
+        <v>34560.70561125</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>40269.10572000001</v>
+        <v>40269.10572</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -2757,7 +2757,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>32297.649153749997</v>
+        <v>32297.649153749993</v>
       </c>
     </row>
   </sheetData>

--- a/A2_results_step1.5_oneprice.xlsx
+++ b/A2_results_step1.5_oneprice.xlsx
@@ -1,33 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d63f66d86bcfcc9a/Master Sustainable Energy/3rd Semester/Renewables in electricity markets/Assignment 1/RenewablesInElectricityMarkets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="115_{9610D883-AB8E-4B6C-A2F3-1308A07173B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F481F198-CFF5-4E0E-BB74-56A096EB74BA}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="profit_dis" sheetId="1" r:id="rId1"/>
-    <sheet name="da_profit_df" r:id="rId5" sheetId="2"/>
-    <sheet name="outofsample_profit_hourly_df" r:id="rId6" sheetId="3"/>
+    <sheet name="da_profit_df" sheetId="2" r:id="rId2"/>
+    <sheet name="outofsample_profit_hourly_df" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>x1</t>
   </si>
@@ -449,2016 +460,2018 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC15A30B-C2AB-4B84-987F-683D80661E9C}">
   <dimension ref="A1:A401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>524969.540625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>524969.54062500002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>526363.2564375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>526363.25643750001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>530447.4658125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>530447.46581249998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>523289.28187500004</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>523507.264875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>523507.26487499999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>525698.6833125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>525698.68331250001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>524869.7776875</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>524892.2055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>524892.20550000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>527263.50075</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>527263.50075000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>527002.1655</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>526816.4915625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>526816.49156250001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>524416.3760625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>524416.37606250006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>527356.6989375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>527356.69893750001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>522512.2558125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>522512.25581250002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>521517.5060625</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>523331.58412500005</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>527559.93525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>527559.93524999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>530549.6585625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>530549.65856250003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>527684.11425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>527684.11424999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>527462.3401875</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>529258.64025</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>529258.64025000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>529285.0284375</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>533182.2358125</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>529003.6005000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>529003.60050000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>528898.3003125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>528898.30031249998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>532614.106125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>532614.10612500005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>529932.2105625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>529932.21056250005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>534251.0386875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>534251.03868750005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>533174.4991875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>533174.49918749998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>537186.1066875</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>537186.10668750003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>529496.8006875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>529496.80068750004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>532536.3718125001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>532536.37181250006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>533811.0043125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>533811.00431250001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>533952.131625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>533952.13162500004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>539326.9395</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>539326.93949999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>535836.203625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>535836.20362499997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>537831.114375</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>538087.1713125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>538087.17131250002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>545433.9720000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>545433.97200000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>531123.1726875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>531123.17268750002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>531936.2145</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>535487.3394375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>535487.33943749999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>542981.4997500001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>542981.49975000008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>542037.36525</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>542037.36525000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>546364.4649375001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>546364.46493750007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>555670.210125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>555670.21012499998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>554342.2295625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>554342.22956250003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>539832.82125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>539832.82125000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>544043.4916875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>544043.49168750003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>542284.0284375</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>545480.568</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>545480.56799999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>546867.5491875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>546867.54918750003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>545404.3419375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>545404.34193750005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>541411.183875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>541411.18387499999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>546513.1605</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>527972.1971250001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>527972.19712500006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>548391.727125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>548391.72712499998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>546482.8063125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>546482.80631250003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>544625.9353125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>544625.93531249999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>543056.7676875</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>543056.76768749999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>547737.99375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>547737.99375000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>557723.700375</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>557723.70037500001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>563069.88375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>563069.88375000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>555063.3916875</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>555063.39168750006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>553279.201125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>553279.20112500002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>559996.684875</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>559996.68487500004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>559787.649</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>559787.64899999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>557932.549125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>557932.54912500002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>562505.946</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>560424.1876875</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>560424.18768750003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>551406.4985625</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>550340.7751875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>550340.77518750005</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>555752.1136875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>555752.11368750001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>556598.5695</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>556598.56949999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>561810.2158125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>561810.21581249998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>572748.2561250001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>572748.25612500007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>570257.6619375</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>580210.4761875</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>580210.47618750005</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>577828.0498125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>577828.04981250002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>593128.6524375001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>593128.65243750007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>558856.1026875001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>558856.10268750007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>557953.0689375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>557953.06893750001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>611601.4254375</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>523267.0779375</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>523267.07793750003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>525844.2744375</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>525844.27443750005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>524850.6414375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>524850.64143750002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>525182.9844375</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>525182.98443750001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>522292.71468750003</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>522325.14618750004</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>524777.348625</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>524777.34862499998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>523715.172375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>523715.17237500002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>523490.66437500005</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>526101.5240625</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>526101.52406249999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>525652.5729375001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>525652.57293750008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>528765.9187500001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>528765.91875000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>525120.131625</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>525120.13162500004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>524391.393</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>524391.39300000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>527645.8828125</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>523419.631875</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>523419.63187500002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>526929.0496875</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>526099.8260625</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>526099.82606250001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>525835.6393125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>525835.63931250002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>528149.8306875001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>528149.83068750007</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>527540.000625</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>527540.00062499999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>527146.587</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>527146.58700000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>531571.6884375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>531571.68843750004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>527201.7526875</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>527201.75268749997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>527872.6685625</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>527872.66856250004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>527590.4443125001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>527590.44431250007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>532216.9531875</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>532216.95318750001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>530936.0032500001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>530936.00325000007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>530177.6685</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>530177.66850000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>527050.483875</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>527050.48387500003</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>526878.5904375</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>526878.59043750004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>527273.4849375</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>527273.48493749998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>527292.534375</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>527292.53437500005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>531000.165375</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>531000.16537499998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>531255.448875</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>530752.6220625</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>530752.62206249998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>532588.0340625</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>535482.0815625</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>535482.08156249998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>534983.9585625001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>534983.95856250008</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>543182.3265</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>543182.32649999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>528633.7704375</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>528633.77043749997</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>528717.648</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>528717.64800000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>537276.2664375</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>537276.26643750002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>537239.7031875</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>537239.70318750001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>547704.3564375</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>547704.35643749998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>514852.00312500005</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>516680.1045</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>516680.10450000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>514394.67750000005</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>517209.823875</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>515527.90875</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>515573.4211875</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>517445.59425</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>517445.59425000002</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>516521.00625000003</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>516734.755125</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>516734.75512500003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>518968.6989375</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>518968.69893750001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>518136.015</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>518136.01500000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>517863.76087500004</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>519139.18312500004</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>515947.47993750003</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>515860.4728125</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>515860.47281250003</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>518610.8364375</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>518610.83643750002</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>516267.88087500003</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>516413.57381250005</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>514444.6708125</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>514811.97581250005</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>513158.71650000004</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>517152.8495625</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>517152.84956250002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>515221.50337500003</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>515521.0678125</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>518940.56025000004</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>518847.24675000005</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>515412.0384375</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>515412.03843750001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>515837.3535</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>515837.35350000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>513090.7025625</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>513090.70256250002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>517489.58025</v>
       </c>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>512310.736875</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>512854.46043750003</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>517689.75675</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>510444.77231250005</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>511281.195</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>511281.19500000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>517343.7613125</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>517343.76131249999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>514874.9896875</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>515486.11181250005</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>505497.36281250004</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>507455.95800000004</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>515090.76056250004</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>509283.67425000004</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>510301.64906250004</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>505474.04175000003</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>506948.1315</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>506948.13150000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>508727.6055</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>508727.60550000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>510808.1983125</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>510808.19831250003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>508893.8435625</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>508893.84356250003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>509951.907</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>509951.90700000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>510999.94350000005</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>509243.6506875</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>509243.65068750002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>510185.499375</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>510185.49937500001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>511428.041625</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>511428.04162500001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>508919.84775</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>508919.84775000002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>510191.35856250004</v>
       </c>
     </row>
-    <row r="185" spans="1:1">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>514103.251125</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>514103.25112500001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>514311.3181875</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>515065.192125</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>508160.2411875</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>508160.24118750001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>509841.6485625</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>509841.64856250002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>511912.0610625</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>504036.139875</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>504036.13987499999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>507240.1695</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>507240.16950000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>505310.86575</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>506480.0555625</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>506480.05556250003</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>502326.77175</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>502326.77175000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>506001.173625</v>
       </c>
     </row>
-    <row r="197" spans="1:1">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>504549.56137500005</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>505936.647</v>
       </c>
     </row>
-    <row r="199" spans="1:1">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>509247.4528125</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>509247.45281250001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>511732.02543750004</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>507998.57906250004</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>509687.95575</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>509687.95575000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>498350.8839375</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>498350.88393750001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>500409.029625</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>500409.02962500002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>497189.5545</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>497189.55450000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>499193.2905</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>491460.52650000004</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>494021.50706250005</v>
       </c>
     </row>
-    <row r="209" spans="1:1">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>506443.7578125</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>488984.1219375</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>488984.12193750002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>507639.88443750003</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>506437.99143750005</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>507630.79125</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>507630.79125000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>508417.9078125</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>508417.90781250002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>506525.992875</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>508520.39793750003</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>507563.44443750003</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>505702.12518750003</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>506745.4786875</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>513248.31093750003</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>514188.61725</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>514188.61725000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>504586.975875</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>505451.4890625</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>505451.48906250001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>507209.40150000004</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>508180.09931250004</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>500106.7216875</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>500106.72168750002</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>501551.86143750005</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>501739.359375</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>503011.607625</v>
       </c>
     </row>
-    <row r="230" spans="1:1">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>498169.23318750004</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>500053.515</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>500053.51500000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>501640.4263125</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>501640.42631250003</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>501750.23681250005</v>
       </c>
     </row>
-    <row r="234" spans="1:1">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>503381.02293750003</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>507155.42456250003</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>508187.854875</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>508187.85487500002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>504177.2454375</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>504177.24543750001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>492940.948125</v>
       </c>
     </row>
-    <row r="239" spans="1:1">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>497213.9113125</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>497213.91131250001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>491352.129375</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>491352.12937500002</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>493509.23568750004</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>484167.6024375</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>484167.60243750003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>486932.934375</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>486932.93437500001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>500972.51550000004</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>504109.87950000004</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>475969.629</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>475969.62900000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>479418.108</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>479418.10800000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>511001.43206250004</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>512667.1471875</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>512667.14718750003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>513717.4198125</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>513717.41981250001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>507962.2089375</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>507962.20893750002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>510317.92312500003</v>
       </c>
     </row>
-    <row r="253" spans="1:1">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>512623.1356875</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>512623.13568750001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>513670.791</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>513670.79100000003</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>511504.7145</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>512890.078875</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
+        <v>512890.07887500001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>513975.7269375</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>512304.511125</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>512304.51112500002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>513579.0395625</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>513579.03956250002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>514884.26268750004</v>
       </c>
     </row>
-    <row r="261" spans="1:1">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>513959.5149375</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>510220.63950000005</v>
       </c>
     </row>
-    <row r="263" spans="1:1">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>512845.46925</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
+        <v>512845.46925000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>514137.1914375</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
+        <v>514137.19143750001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>515348.0476875</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>515348.04768750002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>508638.114375</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>509455.5500625</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>511088.5029375</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>511088.50293750002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>512980.7330625</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
+        <v>512980.73306250002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>507157.723875</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>507157.72387500003</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>509479.94625000004</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>511477.49925000005</v>
       </c>
     </row>
-    <row r="273" spans="1:1">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>509746.8555</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
+        <v>509746.85550000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>511734.55575</v>
       </c>
     </row>
-    <row r="275" spans="1:1">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>513771.92287500005</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>513808.16606250004</v>
       </c>
     </row>
-    <row r="277" spans="1:1">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>515447.36568750005</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>510121.11881250003</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>504150.39300000004</v>
       </c>
     </row>
-    <row r="280" spans="1:1">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>509891.0394375</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>503759.766</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>507594.8431875</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
+        <v>507594.84318750002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>510314.42025</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
+        <v>510314.42025000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>514394.24137500004</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>496298.5625625</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
+        <v>496298.56256250001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>525099.9361875</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
+        <v>525099.93618750002</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>527603.418375</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
+        <v>527603.41837500001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>529211.2245</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
+        <v>529211.22450000001</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>523804.56281250005</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>524192.19693750003</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>524907.9639375</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
+        <v>524907.96393750003</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>527188.2350625</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>527321.1294375</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
+        <v>527321.12943750003</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>530348.9998125</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+        <v>530348.99981249997</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>524121.6751875</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
+        <v>524121.67518750002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>521817.56381250004</v>
       </c>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>526548.1978125001</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
+        <v>526548.19781250006</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>529951.2991875</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
+        <v>529951.29918750003</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>526318.371</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
+        <v>526318.37100000004</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>526415.5599375</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
+        <v>526415.55993750005</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>529878.1460625001</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
+        <v>529878.14606250008</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>529078.2830625001</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
+        <v>529078.28306250006</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>529269.078375</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
+        <v>529269.07837500004</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>533341.64025</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
+        <v>533341.64025000005</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>530170.5965625</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>534656.2875</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
+        <v>534656.28749999998</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>529956.7725000001</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
+        <v>529956.77250000008</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>531444.0751875</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
+        <v>531444.07518749998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>531934.9149375</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
+        <v>531934.91493750003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>535821.665625</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
+        <v>535821.66562500002</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>533796.0748125</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
+        <v>533796.07481250004</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>534362.628375</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
+        <v>534362.62837499997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>540283.644375</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
+        <v>540283.64437500003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314">
-        <v>535840.485</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
+        <v>535840.48499999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315">
-        <v>536307.267</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
+        <v>536307.26699999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>540427.0164375</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
+        <v>540427.01643750002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>541150.59375</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318">
-        <v>549441.84675</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
+        <v>549441.84675000003</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>536015.5944375</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>544485.770625</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321">
-        <v>554928.937125</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
+        <v>554928.93712500005</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322">
-        <v>526242.798375</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
+        <v>526242.79837500001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323">
-        <v>527255.354625</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
+        <v>527255.35462500004</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>530230.6111875001</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
+        <v>530230.61118750006</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325">
-        <v>531673.07625</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
+        <v>531673.07625000004</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>535161.9706875</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
+        <v>535161.97068749997</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327">
-        <v>527413.4975625001</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
+        <v>527413.49756250007</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>525594.887625</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
+        <v>525594.88762499997</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329">
-        <v>527892.601875</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
+        <v>527892.60187500005</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>531077.39625</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
+        <v>531077.39624999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>523304.89012500003</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>523647.00056250003</v>
       </c>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333">
-        <v>526136.781375</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
+        <v>526136.78137500002</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>519798.22931250004</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335">
-        <v>526151.566125</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
+        <v>526151.56612500001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336">
-        <v>526631.5824375</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
+        <v>526631.58243750001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>529564.007625</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
+        <v>529564.00762499997</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338">
-        <v>527240.053875</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
+        <v>527240.05387499998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>527807.2685625</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
+        <v>527807.26856250002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>530171.7916875</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
+        <v>530171.79168749996</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341">
-        <v>531553.3396875</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
+        <v>531553.33968750003</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342">
-        <v>535256.289</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
+        <v>535256.28899999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343">
-        <v>530139.3328125001</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
+        <v>530139.33281250007</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>534453.9525</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
+        <v>534453.95250000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>531215.88</v>
       </c>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346">
-        <v>532532.930625</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
+        <v>532532.93062500004</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>535277.356125</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
+        <v>535277.35612500005</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348">
-        <v>539183.9720625001</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
+        <v>539183.97206250008</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349">
-        <v>532707.6721875</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
+        <v>532707.67218750005</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350">
-        <v>533746.6275000001</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
+        <v>533746.62750000006</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351">
-        <v>536687.5046250001</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
+        <v>536687.50462500006</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>534154.2540000001</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
+        <v>534154.25400000007</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353">
-        <v>538666.5905625001</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
+        <v>538666.59056250006</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>535789.011375</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355">
-        <v>537318.072</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
+        <v>537318.07200000004</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356">
-        <v>545540.5025625001</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
+        <v>545540.50256250007</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357">
-        <v>546767.7189375</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
+        <v>546767.71893750003</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358">
-        <v>549705.8195625</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
+        <v>549705.81956249999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>558838.4955</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
+        <v>558838.49549999996</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>532942.7975625</v>
       </c>
     </row>
-    <row r="361" spans="1:1">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>535977.777</v>
       </c>
     </row>
-    <row r="362" spans="1:1">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>539700.312</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
+        <v>539700.31200000003</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>544586.418375</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
+        <v>544586.41837500001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>531060.8458125</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
+        <v>531060.84581249999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>533926.69125</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
+        <v>533926.69125000003</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>532068.7205625001</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
+        <v>532068.72056250006</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>535442.6531250001</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
+        <v>535442.65312500007</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>535931.9146875</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
+        <v>535931.91468749999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>539128.1055000001</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
+        <v>539128.10550000006</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>533114.1688125001</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
+        <v>533114.16881250008</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>532009.95675</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
+        <v>532009.95675000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>535969.036125</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
+        <v>535969.03612499998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>526501.2860625</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
+        <v>526501.28606249997</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>536549.9791875</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
+        <v>536549.97918749996</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>535396.9689375</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
+        <v>535396.96893750003</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>540028.97775</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
+        <v>540028.97774999996</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>534754.63875</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
+        <v>534754.63875000004</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>537501.517125</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
+        <v>537501.51712500001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>540899.55075</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
+        <v>540899.55075000005</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>540691.9575</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
+        <v>540691.95750000002</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>543094.9963125</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
+        <v>543094.99631249998</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>548162.631375</v>
       </c>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>546111.961125</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
+        <v>546111.96112500003</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>544978.923375</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
+        <v>544978.92337500001</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>550977.30675</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
+        <v>550977.30674999999</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386">
-        <v>539418.1040625001</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
+        <v>539418.10406250006</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387">
-        <v>543214.1566875001</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
+        <v>543214.15668750007</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
-        <v>541862.4283125</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
+        <v>541862.42831250001</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>541566.0605625</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
+        <v>541566.06056250003</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390">
-        <v>546416.1819375</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
+        <v>546416.18193750002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>551008.0614375001</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
+        <v>551008.06143750006</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>557578.527</v>
       </c>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>554581.674</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>561594.914625</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
+        <v>561594.91462499998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>563303.4834375</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
+        <v>563303.48343749996</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396">
-        <v>562024.6275000001</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
+        <v>562024.62750000006</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397">
-        <v>572603.37375</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
+        <v>572603.37375000003</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>543071.563875</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
+        <v>543071.56387499999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>542908.6573125</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
+        <v>542908.65731250006</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400">
-        <v>548074.72425</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
+        <v>548074.72424999997</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401">
-        <v>584752.8215625</v>
+        <v>584752.82156249997</v>
       </c>
     </row>
   </sheetData>
@@ -2467,14 +2480,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:X2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37260CB-B476-4819-975F-877E00ADDFFD}">
+  <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2548,78 +2563,82 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>70706.11874999998</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>66128.15625000006</v>
+        <v>66128.156250000058</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>83302.25999999997</v>
+        <v>83302.259999999966</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>74999.745</v>
+        <v>74999.744999999995</v>
       </c>
       <c r="M2">
-        <v>70338.61499999999</v>
+        <v>70338.614999999991</v>
       </c>
       <c r="N2">
-        <v>68251.87125</v>
+        <v>68251.871249999997</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>85340.79000000002</v>
+        <v>85340.790000000023</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>SUM(A2:X2)</f>
+        <v>519067.55625000002</v>
       </c>
     </row>
   </sheetData>
@@ -2628,134 +2647,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE8A0FB-C297-41D4-A301-61871F225E76}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>28283.577551249982</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>28618.124625000008</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>26859.236175000005</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>28533.883357500046</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>28261.116877500015</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>30169.51457999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>30169.514579999981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>34311.141990000004</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>42121.1122425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>42121.112242499999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>42042.79107000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>42042.791070000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>27453.528832500004</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>22270.863791249998</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>16164.64836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>16164.648359999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>21030.45609749999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>21030.456097499991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>21150.25049250001</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16429.02973875</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>17958.745316250002</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>19326.087652500035</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>28011.76213499999</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>31844.258099999992</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>35429.338597500006</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>34560.70561125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>34560.705611249999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>40269.10572</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>34572.371456249995</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>32297.649153749993</v>
       </c>
